--- a/data/trans_dic/P45C_R2-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P45C_R2-Dificultad-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.1264076075171725</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.2331687883559518</v>
+        <v>0.2331687883559519</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.09078444384181368</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1458450917044846</v>
+        <v>0.1428536566276981</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1086957835676737</v>
+        <v>0.1065334333798954</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1067870311396759</v>
+        <v>0.1073139367601748</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1961415563765307</v>
+        <v>0.1923621927875916</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.0725608573886629</v>
+        <v>0.07179807134489201</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.08554407123675205</v>
+        <v>0.0864295305247114</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.08847694837672683</v>
+        <v>0.08903792352865843</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.0983073611920344</v>
+        <v>0.09872756966925399</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1088578227073318</v>
+        <v>0.1072294981632392</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.102097479535269</v>
+        <v>0.1008984774728633</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1020387519118447</v>
+        <v>0.1023317218269669</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.148285431463053</v>
+        <v>0.1465142555549817</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2107835474980859</v>
+        <v>0.2072382280464202</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1493510304620504</v>
+        <v>0.1480367048758839</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1478990613842724</v>
+        <v>0.1463221761289552</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2802838787659203</v>
+        <v>0.2768679553502701</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1097656686731498</v>
+        <v>0.1107975290396774</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1236216039926672</v>
+        <v>0.1230362092749774</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1247640819489024</v>
+        <v>0.124012656257762</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1425741139828866</v>
+        <v>0.145288505119148</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1413747699265393</v>
+        <v>0.1423295998915522</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1282914615196624</v>
+        <v>0.1288243388679725</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1284657559351051</v>
+        <v>0.1278432303033202</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1939590878146782</v>
+        <v>0.1916706292132583</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.1391131511143064</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.1927098882517248</v>
+        <v>0.1927098882517247</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.1210572179755762</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1329466717026381</v>
+        <v>0.1333795645562753</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1868159577658712</v>
+        <v>0.1875337896298174</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1167927686421802</v>
+        <v>0.1189805455105132</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1648747346217721</v>
+        <v>0.1644856841377853</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1032252316800683</v>
+        <v>0.1031406181614387</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1263428507035155</v>
+        <v>0.1287289856781674</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1352818317892151</v>
+        <v>0.135989332436476</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1283971170687715</v>
+        <v>0.1273777134081967</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1235816536633035</v>
+        <v>0.1237051029860737</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1631539342702808</v>
+        <v>0.1601036073118991</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1341063813004873</v>
+        <v>0.1334471963337896</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1504813082919595</v>
+        <v>0.1511499150679577</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1763763460538958</v>
+        <v>0.1751328583010983</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2407557883048633</v>
+        <v>0.2407393835633676</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1611984898448619</v>
+        <v>0.1640144166479848</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2262573386957644</v>
+        <v>0.2248746058772441</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1424574492663228</v>
+        <v>0.141672538993344</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1714159090636884</v>
+        <v>0.1722461828084193</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1822735436260282</v>
+        <v>0.1835866635958455</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1680973502424067</v>
+        <v>0.1675783210629185</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1526265872511953</v>
+        <v>0.151447631141184</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1968180060359504</v>
+        <v>0.1958386914849809</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1671007499508893</v>
+        <v>0.166482787629405</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1852219760407751</v>
+        <v>0.1864587762474777</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1329884442559033</v>
+        <v>0.1324903392700755</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1594559292239314</v>
+        <v>0.1575436386819173</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1172687909089543</v>
+        <v>0.1177292174707461</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1281250958675968</v>
+        <v>0.1261437733253</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1168676537522867</v>
+        <v>0.1151829058735103</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1310847710990339</v>
+        <v>0.1294406264338567</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1278709044703956</v>
+        <v>0.1228448961771748</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1248568662575624</v>
+        <v>0.124299293480229</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1312404362297786</v>
+        <v>0.1299590604051345</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1504758798851143</v>
+        <v>0.1537233848783555</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.129680076855795</v>
+        <v>0.1289227299744385</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1317028706471869</v>
+        <v>0.1325384164832113</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1769178332640716</v>
+        <v>0.1752039892020794</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2116258518010119</v>
+        <v>0.2127768134591715</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1689444833477224</v>
+        <v>0.1668914395835511</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1779600261371465</v>
+        <v>0.1770555618034014</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1595061811449774</v>
+        <v>0.1589131238636055</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1814236433181088</v>
+        <v>0.1785753937635052</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1812851331796298</v>
+        <v>0.1777837727041365</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.165758876901073</v>
+        <v>0.1652837541776666</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1605401764507996</v>
+        <v>0.1608927133750112</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1866095019747433</v>
+        <v>0.1891165079571875</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1660517792194856</v>
+        <v>0.1653330615957441</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1660025704759224</v>
+        <v>0.1626744897033804</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1202772082320188</v>
+        <v>0.11959034574536</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1592475473821369</v>
+        <v>0.1564839346250445</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.112324851472669</v>
+        <v>0.1104243653670421</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1125729903519777</v>
+        <v>0.1096489205695467</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1527434119891928</v>
+        <v>0.1506308033488836</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1101967634075939</v>
+        <v>0.1140680655009946</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1076040557537764</v>
+        <v>0.1104665291306568</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.09307309936225799</v>
+        <v>0.09443322167892923</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.142869206569374</v>
+        <v>0.1450890955387355</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1448199468758845</v>
+        <v>0.146170230096978</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1191900659782444</v>
+        <v>0.1183805223331934</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1078767484437682</v>
+        <v>0.1076959639344471</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1851794899986844</v>
+        <v>0.1871869535061782</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2311643022656001</v>
+        <v>0.2310495695757893</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1784761961044785</v>
+        <v>0.1748393208639334</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1625541107137388</v>
+        <v>0.1616519563536941</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2363414222594266</v>
+        <v>0.2352419915939683</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.180299413326779</v>
+        <v>0.1837997660461486</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1778007037548006</v>
+        <v>0.1735440082814888</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1350737142879719</v>
+        <v>0.1360904520460259</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.196760850258355</v>
+        <v>0.1958521116810396</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1954033481765682</v>
+        <v>0.1951178257544722</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1631989213804488</v>
+        <v>0.1645994482796768</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1419600786854818</v>
+        <v>0.1406250824548794</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1453521757881958</v>
+        <v>0.1447780685049625</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1626761421125755</v>
+        <v>0.1628880686940557</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1243919107371097</v>
+        <v>0.1240003909302524</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1549236279215026</v>
+        <v>0.1552263919918897</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1124993371641398</v>
+        <v>0.1128735793619712</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.123581216966279</v>
+        <v>0.1236945253819457</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1244779502917552</v>
+        <v>0.1248399429140809</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1231938970009032</v>
+        <v>0.1237825705425867</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1327708189565637</v>
+        <v>0.1330035801356139</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1459698363267813</v>
+        <v>0.1462668555815302</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1274507837710837</v>
+        <v>0.1265232320273709</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.141659592193721</v>
+        <v>0.1417587282290813</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1703764130303562</v>
+        <v>0.1707211777603163</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1897821140043405</v>
+        <v>0.1877169435167674</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1491430438711097</v>
+        <v>0.1491739717863147</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1849901773866257</v>
+        <v>0.1840181969838861</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1359635685540445</v>
+        <v>0.1353800284861298</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.146029304476809</v>
+        <v>0.1482714927317602</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1474977259900477</v>
+        <v>0.1474730521195279</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1447967329311611</v>
+        <v>0.1444900771746933</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.148737644646487</v>
+        <v>0.1499146105776676</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1637510382872847</v>
+        <v>0.1644651955359592</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1442193867984836</v>
+        <v>0.1438342509721436</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1603436934286358</v>
+        <v>0.1599241026834141</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>85194</v>
+        <v>83447</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>112539</v>
+        <v>110300</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>119466</v>
+        <v>120056</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>97557</v>
+        <v>95678</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>66829</v>
+        <v>66127</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>94728</v>
+        <v>95708</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>110344</v>
+        <v>111044</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>61153</v>
+        <v>61415</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>163848</v>
+        <v>161397</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>218765</v>
+        <v>216196</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>241412</v>
+        <v>242105</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>165997</v>
+        <v>164015</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>123127</v>
+        <v>121056</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>154631</v>
+        <v>153271</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>165460</v>
+        <v>163696</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>139408</v>
+        <v>137709</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>101096</v>
+        <v>102046</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>136893</v>
+        <v>136245</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>155599</v>
+        <v>154662</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>88690</v>
+        <v>90378</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>212791</v>
+        <v>214228</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>274892</v>
+        <v>276033</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>303935</v>
+        <v>302462</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>217127</v>
+        <v>214565</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>143185</v>
+        <v>143651</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>181820</v>
+        <v>182519</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>105777</v>
+        <v>107759</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>157595</v>
+        <v>157223</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>109165</v>
+        <v>109075</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>136665</v>
+        <v>139246</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>135681</v>
+        <v>136390</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>143112</v>
+        <v>141976</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>263791</v>
+        <v>264055</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>335274</v>
+        <v>329006</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>255960</v>
+        <v>254701</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>311564</v>
+        <v>312949</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>189959</v>
+        <v>188620</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>234317</v>
+        <v>234302</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>145995</v>
+        <v>148545</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>216268</v>
+        <v>214946</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>150654</v>
+        <v>149824</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>185420</v>
+        <v>186319</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>182811</v>
+        <v>184128</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>187362</v>
+        <v>186783</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>325789</v>
+        <v>323273</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>404453</v>
+        <v>402440</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>318934</v>
+        <v>317754</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>383493</v>
+        <v>386054</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>149024</v>
+        <v>148465</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>139658</v>
+        <v>137983</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>95742</v>
+        <v>96118</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>133843</v>
+        <v>131774</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>115938</v>
+        <v>114267</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>113961</v>
+        <v>112532</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>97944</v>
+        <v>94094</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>130805</v>
+        <v>130221</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>277262</v>
+        <v>274555</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>262612</v>
+        <v>268280</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>205205</v>
+        <v>204007</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>275558</v>
+        <v>277306</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>198250</v>
+        <v>196329</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>185351</v>
+        <v>186359</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>137932</v>
+        <v>136256</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>185902</v>
+        <v>184958</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>158238</v>
+        <v>157650</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>157724</v>
+        <v>155248</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>138857</v>
+        <v>136175</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>173656</v>
+        <v>173158</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>339161</v>
+        <v>339906</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>325673</v>
+        <v>330048</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>262760</v>
+        <v>261622</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>347322</v>
+        <v>340359</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>53093</v>
+        <v>52790</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>79139</v>
+        <v>77766</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>55980</v>
+        <v>55033</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>109863</v>
+        <v>107010</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>51348</v>
+        <v>50638</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>49524</v>
+        <v>51264</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>52124</v>
+        <v>53510</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>84400</v>
+        <v>85633</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>111094</v>
+        <v>112820</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>137054</v>
+        <v>138332</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>117137</v>
+        <v>116341</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>203104</v>
+        <v>202764</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>81742</v>
+        <v>82628</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>114879</v>
+        <v>114822</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>88948</v>
+        <v>87136</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>158641</v>
+        <v>157761</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>79451</v>
+        <v>79082</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>81030</v>
+        <v>82603</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>86127</v>
+        <v>84065</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>122487</v>
+        <v>123409</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>152999</v>
+        <v>152293</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>184925</v>
+        <v>184655</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>160388</v>
+        <v>161764</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>267274</v>
+        <v>264761</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>468492</v>
+        <v>466641</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>550075</v>
+        <v>550792</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>415373</v>
+        <v>414065</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>538172</v>
+        <v>539224</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>372009</v>
+        <v>373247</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>433503</v>
+        <v>433901</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>435730</v>
+        <v>436997</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>454723</v>
+        <v>456896</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>866983</v>
+        <v>868503</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>1005623</v>
+        <v>1007670</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>871723</v>
+        <v>865379</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>1014978</v>
+        <v>1015689</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>549149</v>
+        <v>550260</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>641732</v>
+        <v>634749</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>498022</v>
+        <v>498126</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>642617</v>
+        <v>639240</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>449600</v>
+        <v>447671</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>512247</v>
+        <v>520113</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>516310</v>
+        <v>516223</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>534462</v>
+        <v>533330</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>971245</v>
+        <v>978931</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>1128122</v>
+        <v>1133043</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>986415</v>
+        <v>983781</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>1148848</v>
+        <v>1145842</v>
       </c>
     </row>
     <row r="24">
